--- a/Veille/FileExample/gembox_pivottable.xlsx
+++ b/Veille/FileExample/gembox_pivottable.xlsx
@@ -35,154 +35,154 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>Hans Meier 1</t>
+    <t>John Doe 1</t>
+  </si>
+  <si>
+    <t>11-20</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Hans Meier 2</t>
+  </si>
+  <si>
+    <t>21-30</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Fred Nurk 3</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Hans Meier 4</t>
+  </si>
+  <si>
+    <t>John Doe 5</t>
+  </si>
+  <si>
+    <t>Hans Meier 6</t>
+  </si>
+  <si>
+    <t>Purchasing</t>
+  </si>
+  <si>
+    <t>John Doe 7</t>
   </si>
   <si>
     <t>over 30</t>
   </si>
   <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 2</t>
-  </si>
-  <si>
-    <t>11-20</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 3</t>
-  </si>
-  <si>
-    <t>21-30</t>
-  </si>
-  <si>
-    <t>Fred Nurk 4</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 5</t>
-  </si>
-  <si>
-    <t>John Doe 6</t>
-  </si>
-  <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>Hans Meier 7</t>
-  </si>
-  <si>
-    <t>Purchasing</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 8</t>
-  </si>
-  <si>
-    <t>1-10</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>Fred Nurk 9</t>
+    <t>Hans Meier 8</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 9</t>
   </si>
   <si>
     <t>Ivan Horvat 10</t>
   </si>
   <si>
-    <t>Fred Nurk 11</t>
-  </si>
-  <si>
-    <t>Fred Nurk 12</t>
-  </si>
-  <si>
-    <t>Fred Nurk 13</t>
-  </si>
-  <si>
-    <t>John Doe 14</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 15</t>
+    <t>Hans Meier 11</t>
+  </si>
+  <si>
+    <t>Hans Meier 12</t>
+  </si>
+  <si>
+    <t>John Doe 13</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 14</t>
+  </si>
+  <si>
+    <t>Fred Nurk 15</t>
   </si>
   <si>
     <t>Fred Nurk 16</t>
   </si>
   <si>
-    <t>Fred Nurk 17</t>
-  </si>
-  <si>
-    <t>Fred Nurk 18</t>
+    <t>John Doe 17</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 18</t>
   </si>
   <si>
     <t>Hans Meier 19</t>
   </si>
   <si>
-    <t>Ivan Horvat 20</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 21</t>
+    <t>Fred Nurk 20</t>
+  </si>
+  <si>
+    <t>John Doe 21</t>
   </si>
   <si>
     <t>Ivan Horvat 22</t>
   </si>
   <si>
-    <t>Hans Meier 23</t>
-  </si>
-  <si>
-    <t>John Doe 24</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 25</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 26</t>
-  </si>
-  <si>
-    <t>John Doe 27</t>
+    <t>John Doe 23</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 24</t>
+  </si>
+  <si>
+    <t>John Doe 25</t>
+  </si>
+  <si>
+    <t>John Doe 26</t>
+  </si>
+  <si>
+    <t>Hans Meier 27</t>
   </si>
   <si>
     <t>Hans Meier 28</t>
   </si>
   <si>
-    <t>Fred Nurk 29</t>
+    <t>Ivan Horvat 29</t>
   </si>
   <si>
     <t>John Doe 30</t>
   </si>
   <si>
-    <t>Ivan Horvat 31</t>
-  </si>
-  <si>
-    <t>Fred Nurk 32</t>
-  </si>
-  <si>
-    <t>John Doe 33</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 34</t>
-  </si>
-  <si>
-    <t>John Doe 35</t>
-  </si>
-  <si>
-    <t>John Doe 36</t>
-  </si>
-  <si>
-    <t>Fred Nurk 37</t>
-  </si>
-  <si>
-    <t>John Doe 38</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 39</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 40</t>
+    <t>John Doe 31</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 32</t>
+  </si>
+  <si>
+    <t>Fred Nurk 33</t>
+  </si>
+  <si>
+    <t>Hans Meier 34</t>
+  </si>
+  <si>
+    <t>Hans Meier 35</t>
+  </si>
+  <si>
+    <t>Fred Nurk 36</t>
+  </si>
+  <si>
+    <t>John Doe 37</t>
+  </si>
+  <si>
+    <t>Fred Nurk 38</t>
+  </si>
+  <si>
+    <t>John Doe 39</t>
+  </si>
+  <si>
+    <t>John Doe 40</t>
   </si>
   <si>
     <t>Fred Nurk 41</t>
   </si>
   <si>
-    <t>Fred Nurk 42</t>
+    <t>John Doe 42</t>
   </si>
   <si>
     <t>Ivan Horvat 43</t>
@@ -197,76 +197,76 @@
     <t>Hans Meier 46</t>
   </si>
   <si>
-    <t>Ivan Horvat 47</t>
-  </si>
-  <si>
-    <t>Hans Meier 48</t>
+    <t>Fred Nurk 47</t>
+  </si>
+  <si>
+    <t>Fred Nurk 48</t>
   </si>
   <si>
     <t>Fred Nurk 49</t>
   </si>
   <si>
-    <t>Ivan Horvat 50</t>
-  </si>
-  <si>
-    <t>Hans Meier 51</t>
-  </si>
-  <si>
-    <t>Fred Nurk 52</t>
+    <t>Hans Meier 50</t>
+  </si>
+  <si>
+    <t>Fred Nurk 51</t>
+  </si>
+  <si>
+    <t>Hans Meier 52</t>
   </si>
   <si>
     <t>Fred Nurk 53</t>
   </si>
   <si>
-    <t>Hans Meier 54</t>
+    <t>Ivan Horvat 54</t>
   </si>
   <si>
     <t>John Doe 55</t>
   </si>
   <si>
-    <t>Ivan Horvat 56</t>
-  </si>
-  <si>
-    <t>Hans Meier 57</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 58</t>
-  </si>
-  <si>
-    <t>Hans Meier 59</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 60</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 61</t>
-  </si>
-  <si>
-    <t>Fred Nurk 62</t>
+    <t>Hans Meier 56</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 57</t>
+  </si>
+  <si>
+    <t>John Doe 58</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 59</t>
+  </si>
+  <si>
+    <t>Fred Nurk 60</t>
+  </si>
+  <si>
+    <t>Hans Meier 61</t>
+  </si>
+  <si>
+    <t>John Doe 62</t>
   </si>
   <si>
     <t>Fred Nurk 63</t>
   </si>
   <si>
-    <t>Fred Nurk 64</t>
-  </si>
-  <si>
-    <t>John Doe 65</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 66</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 67</t>
-  </si>
-  <si>
-    <t>Fred Nurk 68</t>
-  </si>
-  <si>
-    <t>Hans Meier 69</t>
-  </si>
-  <si>
-    <t>Hans Meier 70</t>
+    <t>Hans Meier 64</t>
+  </si>
+  <si>
+    <t>Fred Nurk 65</t>
+  </si>
+  <si>
+    <t>Fred Nurk 66</t>
+  </si>
+  <si>
+    <t>Fred Nurk 67</t>
+  </si>
+  <si>
+    <t>John Doe 68</t>
+  </si>
+  <si>
+    <t>Fred Nurk 69</t>
+  </si>
+  <si>
+    <t>John Doe 70</t>
   </si>
   <si>
     <t>Hans Meier 71</t>
@@ -275,7 +275,7 @@
     <t>Ivan Horvat 72</t>
   </si>
   <si>
-    <t>John Doe 73</t>
+    <t>Ivan Horvat 73</t>
   </si>
   <si>
     <t>Hans Meier 74</t>
@@ -284,79 +284,79 @@
     <t>Fred Nurk 75</t>
   </si>
   <si>
-    <t>John Doe 76</t>
-  </si>
-  <si>
-    <t>John Doe 77</t>
+    <t>Ivan Horvat 76</t>
+  </si>
+  <si>
+    <t>Hans Meier 77</t>
   </si>
   <si>
     <t>Fred Nurk 78</t>
   </si>
   <si>
-    <t>Ivan Horvat 79</t>
-  </si>
-  <si>
-    <t>John Doe 80</t>
-  </si>
-  <si>
-    <t>Hans Meier 81</t>
+    <t>Hans Meier 79</t>
+  </si>
+  <si>
+    <t>Fred Nurk 80</t>
+  </si>
+  <si>
+    <t>John Doe 81</t>
   </si>
   <si>
     <t>Fred Nurk 82</t>
   </si>
   <si>
-    <t>John Doe 83</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 84</t>
+    <t>Ivan Horvat 83</t>
+  </si>
+  <si>
+    <t>Fred Nurk 84</t>
   </si>
   <si>
     <t>Fred Nurk 85</t>
   </si>
   <si>
-    <t>Hans Meier 86</t>
+    <t>Ivan Horvat 86</t>
   </si>
   <si>
     <t>John Doe 87</t>
   </si>
   <si>
-    <t>Ivan Horvat 88</t>
-  </si>
-  <si>
-    <t>Fred Nurk 89</t>
-  </si>
-  <si>
-    <t>John Doe 90</t>
+    <t>John Doe 88</t>
+  </si>
+  <si>
+    <t>John Doe 89</t>
+  </si>
+  <si>
+    <t>Ivan Horvat 90</t>
   </si>
   <si>
     <t>John Doe 91</t>
   </si>
   <si>
-    <t>Hans Meier 92</t>
-  </si>
-  <si>
-    <t>Fred Nurk 93</t>
+    <t>John Doe 92</t>
+  </si>
+  <si>
+    <t>Hans Meier 93</t>
   </si>
   <si>
     <t>John Doe 94</t>
   </si>
   <si>
-    <t>John Doe 95</t>
-  </si>
-  <si>
-    <t>Ivan Horvat 96</t>
+    <t>Hans Meier 95</t>
+  </si>
+  <si>
+    <t>Fred Nurk 96</t>
   </si>
   <si>
     <t>John Doe 97</t>
   </si>
   <si>
-    <t>Ivan Horvat 98</t>
+    <t>Fred Nurk 98</t>
   </si>
   <si>
     <t>John Doe 99</t>
   </si>
   <si>
-    <t>Fred Nurk 100</t>
+    <t>Ivan Horvat 100</t>
   </si>
 </sst>
 </file>
@@ -418,10 +418,10 @@
     <cacheField name="Departments" numFmtId="0">
       <sharedItems count="5">
         <s v="Marketing"/>
+        <s v="Legal"/>
+        <s v="Planning"/>
         <s v="Finance"/>
-        <s v="Planning"/>
         <s v="Purchasing"/>
-        <s v="Legal"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Names" numFmtId="0">
@@ -429,10 +429,10 @@
     </cacheField>
     <cacheField name="Years of Service" numFmtId="0">
       <sharedItems count="4">
-        <s v="over 30"/>
         <s v="11-20"/>
         <s v="21-30"/>
         <s v="1-10"/>
+        <s v="over 30"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Salaries" numFmtId="0">
@@ -452,21 +452,21 @@
   <pivotFields count="4">
     <pivotField name="Departments" axis="axisRow" showAll="0">
       <items count="6">
+        <item x="3"/>
         <item x="1"/>
-        <item x="4"/>
         <item x="0"/>
         <item x="2"/>
-        <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="Names" dataField="1" showAll="0"/>
     <pivotField name="Years of Service" axis="axisCol" showAll="0">
       <items count="5">
-        <item x="3"/>
-        <item x="1"/>
         <item x="2"/>
         <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -817,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>4200</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="3">
@@ -831,49 +831,49 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>4400</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>1600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1700</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>5200</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="7">
@@ -881,55 +881,55 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>2800</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>9200</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9">
-        <v>3300</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>10000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="11">
@@ -943,21 +943,21 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>9100</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>5500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="13">
@@ -971,119 +971,119 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>6700</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>2100</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>9800</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>3500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>3200</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>7000</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>8800</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>4500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="22">
@@ -1094,155 +1094,155 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>4900</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>10000</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>5400</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>5200</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>9800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>6600</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>2900</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>3700</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>5400</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>8200</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <v>1300</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -1251,26 +1251,26 @@
         <v>9</v>
       </c>
       <c r="D33">
-        <v>8700</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>4900</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>46</v>
@@ -1279,35 +1279,35 @@
         <v>19</v>
       </c>
       <c r="D35">
-        <v>6700</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>1900</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>1300</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="38">
@@ -1318,10 +1318,10 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>9300</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="39">
@@ -1332,80 +1332,80 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>9400</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>4600</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>3900</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>6300</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>1300</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>4800</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="45">
@@ -1416,15 +1416,15 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D45">
-        <v>7800</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
         <v>57</v>
@@ -1433,245 +1433,245 @@
         <v>19</v>
       </c>
       <c r="D46">
-        <v>3100</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>9800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48">
-        <v>3800</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D49">
-        <v>10000</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>3500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D51">
-        <v>5900</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>5600</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
         <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>7700</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D54">
-        <v>8500</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55">
-        <v>1600</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>8700</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
         <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D57">
-        <v>6400</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
         <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58">
-        <v>8200</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
         <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>8300</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>2900</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
         <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D61">
-        <v>8400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>6500</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
         <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D63">
-        <v>6300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="64">
@@ -1682,15 +1682,15 @@
         <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>9000</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
         <v>76</v>
@@ -1699,7 +1699,7 @@
         <v>6</v>
       </c>
       <c r="D65">
-        <v>6600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="66">
@@ -1710,15 +1710,15 @@
         <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D66">
-        <v>9000</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>78</v>
@@ -1727,21 +1727,21 @@
         <v>19</v>
       </c>
       <c r="D67">
-        <v>1100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
         <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68">
-        <v>2200</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="69">
@@ -1752,127 +1752,127 @@
         <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D69">
-        <v>2000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
         <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70">
-        <v>6400</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D71">
-        <v>2000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
         <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D72">
-        <v>1900</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
         <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73">
-        <v>8900</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
         <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D74">
-        <v>8300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
         <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D75">
-        <v>4700</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
         <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <v>8600</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77">
-        <v>5800</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
         <v>89</v>
@@ -1881,63 +1881,63 @@
         <v>19</v>
       </c>
       <c r="D78">
-        <v>8900</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
         <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D79">
-        <v>8400</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
         <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>7500</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
         <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D81">
-        <v>7800</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
         <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D82">
-        <v>6600</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="83">
@@ -1951,12 +1951,12 @@
         <v>19</v>
       </c>
       <c r="D83">
-        <v>1700</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
         <v>95</v>
@@ -1965,40 +1965,40 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>8200</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
         <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85">
-        <v>3200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
         <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D86">
-        <v>4600</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
         <v>98</v>
@@ -2007,7 +2007,7 @@
         <v>19</v>
       </c>
       <c r="D87">
-        <v>3700</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="88">
@@ -2018,57 +2018,57 @@
         <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88">
-        <v>2800</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D89">
-        <v>6500</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
         <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>2900</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
         <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91">
-        <v>8300</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B92" t="s">
         <v>103</v>
@@ -2077,133 +2077,133 @@
         <v>6</v>
       </c>
       <c r="D92">
-        <v>7000</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
         <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D93">
-        <v>4300</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
         <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>6200</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
         <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D95">
-        <v>1800</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
         <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>5400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
         <v>108</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D97">
-        <v>2300</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
         <v>109</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D98">
-        <v>2700</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
         <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D99">
-        <v>7000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
         <v>111</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100">
-        <v>5600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
         <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D101">
-        <v>4000</v>
+        <v>8800</v>
       </c>
     </row>
   </sheetData>
